--- a/src/tables/SNV_entries_patients_summary.xlsx
+++ b/src/tables/SNV_entries_patients_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibrah\Documents\GitHub\Predicting-Mutation-Effects\src\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B0F7FE-281E-4A15-AAE6-523735E15A61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BABCAE-B7DD-41D5-9BD0-0965CF739A63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,16 +665,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="2">
         <v>72788</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="2">
         <v>412</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -757,16 +757,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <v>46847</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>392</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
     </row>
